--- a/biology/Zoologie/Alticinae/Alticinae.xlsx
+++ b/biology/Zoologie/Alticinae/Alticinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alticini, Halticinae · Altises
 Les Alticinae ou anciennement Halticinae (les altises), sont une sous-famille d'insectes sauteurs de l'ordre des coléoptères et de la famille des chrysomélidés (souvent classés dans la sous-famille des Galerucinae en tant que tribu des Alticini). Ils sont ravageurs de nombreuses cultures. Ils ont les pattes arrière très développées et sautent lorsqu'ils sont dérangés. Leur nom, qui date du XVIIIe siècle, (h)altica, provient du grec haltikos, « habile à sauter ».
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu Alticini est décrite par Newmann en 1834[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu Alticini est décrite par Newmann en 1834.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est assez facile de s'en débarrasser, sans aucun produit chimique : Doucher avec un jet d'eau en pluie fine pour les faire fuir. Elles vont revenir au bout de quelques heures. Recommencer un arrosage des feuilles. Au bout de 4 ou 5 douches, lassées les altises ne reviennent pas.[réf. nécessaire]
 </t>
@@ -575,7 +591,9 @@
           <t>Liste partielle des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Altise des crucifères :
 Altise du colza
@@ -612,9 +630,11 @@
           <t>Liste des tribus, sous-tribus, genres, espèces et non-classés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 août 2014)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 août 2014) :
 tribu Alticini
 sous-tribu Alticina
 genre Altica
